--- a/biology/Zoologie/Charaxes_orilus/Charaxes_orilus.xlsx
+++ b/biology/Zoologie/Charaxes_orilus/Charaxes_orilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases orilus est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charaxes orilus a été nommé par Arthur Gardiner Butler en 1869[1].
-Noms vernaculaires</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes orilus a été nommé par Arthur Gardiner Butler en 1869.
+</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes orilus est un grand papillon au dessus marron foncé presque noir ornementé de blanc, avec des ailes antérieures très concaves ornées d'une ligne submarginale de taches blanches et des ailes postérieures à portion basale marron foncé et reste blanc orné d'une ligne submarginale de chevrons marron. 
 </t>
@@ -570,12 +586,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Indonésie à Timor, à Wetar et à Kisar.
+Sur les autres projets Wikimedia :
+Charaxes orilus, sur Wikimedia CommonsCharaxes orilus, sur Wikispecies
+</t>
         </is>
       </c>
     </row>
@@ -605,12 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Indonésie à Timor, à Wetar et à Kisar[1].
-Sur les autres projets Wikimedia :
-Charaxes orilus, sur Wikimedia CommonsCharaxes orilus, sur Wikispecies
-Biotope
-Protection
-Pas de protection : il est en vente libre sur internet.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : il est en vente libre sur internet.
 </t>
         </is>
       </c>
